--- a/ToUpload/128004000_2023-06-19_2_JAB-LAW - 3.xlsx
+++ b/ToUpload/128004000_2023-06-19_2_JAB-LAW - 3.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -322,6 +325,118 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CATEGORY</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>COMORBIDITY</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>UNIQUE_PERSON_ID</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>PWD</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>INDIGENOUS_MEMBER</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>LAST_NAME</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>FIRST_NAME</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>MIDDLE_NAME</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>SUFFIX</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>CONTACT_NO</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>GUARDIAN_NAME</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>REGION</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>PROVINCE</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>MUNI_CITY</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>BARANGAY</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>SEX</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>BIRTHDATE</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>DEFERRAL</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>REASON_FOR_DEFERRAL</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>VACCINATION_DATE</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>VACCINE_MANUFACTURER_NAME</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>BATCH_NUMBER</v>
+          </cell>
+          <cell r="W1" t="str">
+            <v>LOT_NO</v>
+          </cell>
+          <cell r="X1" t="str">
+            <v>BAKUNA_CENTER_CBCR_ID</v>
+          </cell>
+          <cell r="Y1" t="str">
+            <v>VACCINATOR_NAME</v>
+          </cell>
+          <cell r="Z1" t="str">
+            <v>FIRST_DOSE</v>
+          </cell>
+          <cell r="AA1" t="str">
+            <v>SECOND_DOSE</v>
+          </cell>
+          <cell r="AB1" t="str">
+            <v>ADDITIONAL_BOOSTER_DOSE</v>
+          </cell>
+          <cell r="AC1" t="str">
+            <v>SECOND_ADDITIONAL_BOOSTER_DOSE</v>
+          </cell>
+          <cell r="AD1" t="str">
+            <v>ADVERSE_EVENT</v>
+          </cell>
+          <cell r="AE1" t="str">
+            <v>ADVERSE_EVENT_CONDITION</v>
+          </cell>
+          <cell r="AF1" t="str">
+            <v>ROW_HASH</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,7 +705,7 @@
   <dimension ref="A1:AF147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -984,6 +1099,136 @@
         <v>79</v>
       </c>
     </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" t="b">
+        <f>A1=[1]Sheet1!A1</f>
+        <v>1</v>
+      </c>
+      <c r="B6" t="b">
+        <f>B1=[1]Sheet1!B1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f>C1=[1]Sheet1!C1</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f>D1=[1]Sheet1!D1</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <f>E1=[1]Sheet1!E1</f>
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <f>F1=[1]Sheet1!F1</f>
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <f>G1=[1]Sheet1!G1</f>
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <f>H1=[1]Sheet1!H1</f>
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <f>I1=[1]Sheet1!I1</f>
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <f>J1=[1]Sheet1!J1</f>
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <f>K1=[1]Sheet1!K1</f>
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <f>L1=[1]Sheet1!L1</f>
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <f>M1=[1]Sheet1!M1</f>
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <f>N1=[1]Sheet1!N1</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <f>O1=[1]Sheet1!O1</f>
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <f>P1=[1]Sheet1!P1</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
+        <f>Q1=[1]Sheet1!Q1</f>
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <f>R1=[1]Sheet1!R1</f>
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <f>S1=[1]Sheet1!S1</f>
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <f>T1=[1]Sheet1!T1</f>
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <f>U1=[1]Sheet1!U1</f>
+        <v>1</v>
+      </c>
+      <c r="V6" t="b">
+        <f>V1=[1]Sheet1!V1</f>
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <f>W1=[1]Sheet1!W1</f>
+        <v>1</v>
+      </c>
+      <c r="X6" t="b">
+        <f>X1=[1]Sheet1!X1</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <f>Y1=[1]Sheet1!Y1</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" t="b">
+        <f>Z1=[1]Sheet1!Z1</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" t="b">
+        <f>AA1=[1]Sheet1!AA1</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" t="b">
+        <f>AB1=[1]Sheet1!AB1</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" t="b">
+        <f>AC1=[1]Sheet1!AC1</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" t="b">
+        <f>AD1=[1]Sheet1!AD1</f>
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
+        <f>AE1=[1]Sheet1!AE1</f>
+        <v>1</v>
+      </c>
+      <c r="AF6" t="b">
+        <f>AF1=[1]Sheet1!AF1</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
     </row>

--- a/ToUpload/128004000_2023-06-19_2_JAB-LAW - 3.xlsx
+++ b/ToUpload/128004000_2023-06-19_2_JAB-LAW - 3.xlsx
@@ -14,15 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -135,15 +132,9 @@
     <t>JABONILLO</t>
   </si>
   <si>
-    <t>HASLEAH</t>
-  </si>
-  <si>
     <t>APANG</t>
   </si>
   <si>
-    <t>09758114952</t>
-  </si>
-  <si>
     <t>JABONILLO, VICTOR</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>VALENZUELA</t>
   </si>
   <si>
-    <t>09074732055</t>
-  </si>
-  <si>
     <t>KAMANGA</t>
   </si>
   <si>
@@ -234,40 +222,76 @@
     <t>LGU ID 4.1</t>
   </si>
   <si>
+    <t>ZENAIRO</t>
+  </si>
+  <si>
+    <t>ARINSULAT</t>
+  </si>
+  <si>
+    <t>09073451778</t>
+  </si>
+  <si>
+    <t>POBLACION</t>
+  </si>
+  <si>
+    <t>1963-03-13</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>32125BA</t>
+  </si>
+  <si>
+    <t>PIMENTEL, RN</t>
+  </si>
+  <si>
+    <t>3009157c918ae9530038cf54fbe5ec44</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Yis</t>
+  </si>
+  <si>
+    <t>HASLEAH#</t>
+  </si>
+  <si>
+    <t>DELATORRE</t>
+  </si>
+  <si>
+    <t>8004-008A-L2770JPD20001-0</t>
+  </si>
+  <si>
     <t>DELA TORRE</t>
   </si>
   <si>
-    <t>ZENAIRO</t>
-  </si>
-  <si>
-    <t>ARINSULAT</t>
-  </si>
-  <si>
-    <t>09073451778</t>
-  </si>
-  <si>
-    <t>POBLACION</t>
-  </si>
-  <si>
-    <t>1963-03-13</t>
-  </si>
-  <si>
-    <t>2021-11-29</t>
-  </si>
-  <si>
-    <t>32125BA</t>
-  </si>
-  <si>
-    <t>PIMENTEL, RN</t>
-  </si>
-  <si>
-    <t>3009157c918ae9530038cf54fbe5ec44</t>
-  </si>
-  <si>
-    <t>Nu</t>
-  </si>
-  <si>
-    <t>Yis</t>
+    <t>JEANETTE</t>
+  </si>
+  <si>
+    <t>PALANAS</t>
+  </si>
+  <si>
+    <t>09064535096</t>
+  </si>
+  <si>
+    <t>POBLACION(MAASIM)</t>
+  </si>
+  <si>
+    <t>1070-12-27</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>B202104035</t>
+  </si>
+  <si>
+    <t>JABILLES, RN</t>
+  </si>
+  <si>
+    <t>4fbb6218b032b7831751ece674cf1685</t>
   </si>
 </sst>
 </file>
@@ -325,118 +349,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>CATEGORY</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>COMORBIDITY</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>UNIQUE_PERSON_ID</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>PWD</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>INDIGENOUS_MEMBER</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>LAST_NAME</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>FIRST_NAME</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>MIDDLE_NAME</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>SUFFIX</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>CONTACT_NO</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>GUARDIAN_NAME</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>REGION</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>PROVINCE</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>MUNI_CITY</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>BARANGAY</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>SEX</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>BIRTHDATE</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>DEFERRAL</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>REASON_FOR_DEFERRAL</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>VACCINATION_DATE</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>VACCINE_MANUFACTURER_NAME</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>BATCH_NUMBER</v>
-          </cell>
-          <cell r="W1" t="str">
-            <v>LOT_NO</v>
-          </cell>
-          <cell r="X1" t="str">
-            <v>BAKUNA_CENTER_CBCR_ID</v>
-          </cell>
-          <cell r="Y1" t="str">
-            <v>VACCINATOR_NAME</v>
-          </cell>
-          <cell r="Z1" t="str">
-            <v>FIRST_DOSE</v>
-          </cell>
-          <cell r="AA1" t="str">
-            <v>SECOND_DOSE</v>
-          </cell>
-          <cell r="AB1" t="str">
-            <v>ADDITIONAL_BOOSTER_DOSE</v>
-          </cell>
-          <cell r="AC1" t="str">
-            <v>SECOND_ADDITIONAL_BOOSTER_DOSE</v>
-          </cell>
-          <cell r="AD1" t="str">
-            <v>ADVERSE_EVENT</v>
-          </cell>
-          <cell r="AE1" t="str">
-            <v>ADVERSE_EVENT_CONDITION</v>
-          </cell>
-          <cell r="AF1" t="str">
-            <v>ROW_HASH</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF147"/>
+  <dimension ref="A1:AF148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -715,6 +627,7 @@
     <col min="3" max="3" width="19.59765625" customWidth="1"/>
     <col min="4" max="4" width="16.296875" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" customWidth="1"/>
     <col min="7" max="7" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.3984375" bestFit="1" customWidth="1"/>
@@ -837,80 +750,77 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
       <c r="AB2" t="s">
         <v>34</v>
       </c>
@@ -920,80 +830,86 @@
       <c r="AD2" t="s">
         <v>34</v>
       </c>
+      <c r="AE2" t="s">
+        <v>45</v>
+      </c>
       <c r="AF2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>9758114952</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
       </c>
       <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
         <v>47</v>
       </c>
-      <c r="T3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" t="s">
-        <v>64</v>
-      </c>
       <c r="V3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="X3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>53</v>
-      </c>
       <c r="AA3" t="s">
         <v>34</v>
       </c>
@@ -1006,233 +922,190 @@
       <c r="AD3" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" t="s">
-        <v>47</v>
-      </c>
       <c r="AF3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4">
+        <v>9074732015</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
+      <c r="Q5" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
         <v>72</v>
       </c>
-      <c r="J4" t="s">
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
         <v>73</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Z5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
         <v>75</v>
       </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" t="s">
-        <v>77</v>
-      </c>
-      <c r="X4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" t="b">
-        <f>A1=[1]Sheet1!A1</f>
-        <v>1</v>
-      </c>
-      <c r="B6" t="b">
-        <f>B1=[1]Sheet1!B1</f>
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <f>C1=[1]Sheet1!C1</f>
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <f>D1=[1]Sheet1!D1</f>
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <f>E1=[1]Sheet1!E1</f>
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <f>F1=[1]Sheet1!F1</f>
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <f>G1=[1]Sheet1!G1</f>
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <f>H1=[1]Sheet1!H1</f>
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <f>I1=[1]Sheet1!I1</f>
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <f>J1=[1]Sheet1!J1</f>
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <f>K1=[1]Sheet1!K1</f>
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <f>L1=[1]Sheet1!L1</f>
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <f>M1=[1]Sheet1!M1</f>
-        <v>1</v>
-      </c>
-      <c r="N6" t="b">
-        <f>N1=[1]Sheet1!N1</f>
-        <v>1</v>
-      </c>
-      <c r="O6" t="b">
-        <f>O1=[1]Sheet1!O1</f>
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <f>P1=[1]Sheet1!P1</f>
-        <v>1</v>
-      </c>
-      <c r="Q6" t="b">
-        <f>Q1=[1]Sheet1!Q1</f>
-        <v>1</v>
-      </c>
-      <c r="R6" t="b">
-        <f>R1=[1]Sheet1!R1</f>
-        <v>1</v>
-      </c>
-      <c r="S6" t="b">
-        <f>S1=[1]Sheet1!S1</f>
-        <v>1</v>
-      </c>
-      <c r="T6" t="b">
-        <f>T1=[1]Sheet1!T1</f>
-        <v>1</v>
-      </c>
-      <c r="U6" t="b">
-        <f>U1=[1]Sheet1!U1</f>
-        <v>1</v>
-      </c>
-      <c r="V6" t="b">
-        <f>V1=[1]Sheet1!V1</f>
-        <v>1</v>
-      </c>
-      <c r="W6" t="b">
-        <f>W1=[1]Sheet1!W1</f>
-        <v>1</v>
-      </c>
-      <c r="X6" t="b">
-        <f>X1=[1]Sheet1!X1</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" t="b">
-        <f>Y1=[1]Sheet1!Y1</f>
-        <v>1</v>
-      </c>
-      <c r="Z6" t="b">
-        <f>Z1=[1]Sheet1!Z1</f>
-        <v>1</v>
-      </c>
-      <c r="AA6" t="b">
-        <f>AA1=[1]Sheet1!AA1</f>
-        <v>1</v>
-      </c>
-      <c r="AB6" t="b">
-        <f>AB1=[1]Sheet1!AB1</f>
-        <v>1</v>
-      </c>
-      <c r="AC6" t="b">
-        <f>AC1=[1]Sheet1!AC1</f>
-        <v>1</v>
-      </c>
-      <c r="AD6" t="b">
-        <f>AD1=[1]Sheet1!AD1</f>
-        <v>1</v>
-      </c>
-      <c r="AE6" t="b">
-        <f>AE1=[1]Sheet1!AE1</f>
-        <v>1</v>
-      </c>
-      <c r="AF6" t="b">
-        <f>AF1=[1]Sheet1!AF1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>